--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_SOx.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.13586441249254</v>
+        <v>1.256512397479888</v>
       </c>
       <c r="C2">
-        <v>0.02976480000000001</v>
+        <v>0.01751040000000001</v>
       </c>
       <c r="D2">
-        <v>0.1432347729452777</v>
+        <v>0.08426390125856686</v>
       </c>
       <c r="E2">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F2">
-        <v>0.1973399691616724</v>
+        <v>0.1160935667637124</v>
       </c>
       <c r="G2">
-        <v>1.586192637327687</v>
+        <v>0.933144773580293</v>
       </c>
       <c r="H2">
-        <v>0.08280935546206926</v>
+        <v>0.04871609881077704</v>
       </c>
       <c r="I2">
-        <v>4.570083167502645</v>
+        <v>2.68854433076111</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.13586441249254</v>
+        <v>1.256512397479888</v>
       </c>
       <c r="C3">
-        <v>0.0446472</v>
+        <v>0.02626559999999999</v>
       </c>
       <c r="D3">
-        <v>0.1727242850222465</v>
+        <v>0.1016123515176836</v>
       </c>
       <c r="E3">
-        <v>0.3875646790001879</v>
+        <v>0.2280012818888381</v>
       </c>
       <c r="F3">
-        <v>0.2341767634051846</v>
+        <v>0.1377643658929386</v>
       </c>
       <c r="G3">
-        <v>1.514813968647941</v>
+        <v>0.8911532587691807</v>
       </c>
       <c r="H3">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I3">
-        <v>4.544997545542813</v>
+        <v>2.673786654755713</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>2.529129136560314</v>
+        <v>1.487866971483957</v>
       </c>
       <c r="C4">
-        <v>0.03720600000000001</v>
+        <v>0.021888</v>
       </c>
       <c r="D4">
-        <v>0.1937882222200818</v>
+        <v>0.114004101702767</v>
       </c>
       <c r="E4">
-        <v>0.4460650079058764</v>
+        <v>0.2624165697211155</v>
       </c>
       <c r="F4">
-        <v>0.2631199588822298</v>
+        <v>0.1547914223516165</v>
       </c>
       <c r="G4">
-        <v>0.919991729650058</v>
+        <v>0.5412239686765706</v>
       </c>
       <c r="H4">
-        <v>0.1656187109241385</v>
+        <v>0.09743219762155407</v>
       </c>
       <c r="I4">
-        <v>4.554918766142698</v>
+        <v>2.679623231557581</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.896176212356904</v>
+        <v>1.703797907221091</v>
       </c>
       <c r="C5">
-        <v>0.02381184</v>
+        <v>0.01400832</v>
       </c>
       <c r="D5">
-        <v>0.1980010096596488</v>
+        <v>0.1164824517397836</v>
       </c>
       <c r="E5">
-        <v>0.4826277134719319</v>
+        <v>0.2839261246162888</v>
       </c>
       <c r="F5">
-        <v>0.1907619701896164</v>
+        <v>0.112223781204922</v>
       </c>
       <c r="G5">
-        <v>0.6344770549310749</v>
+        <v>0.3732579094321174</v>
       </c>
       <c r="H5">
-        <v>0.07360831596628377</v>
+        <v>0.04330319894291293</v>
       </c>
       <c r="I5">
-        <v>4.499464116575459</v>
+        <v>2.646999693157115</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>3.490442906503763</v>
+        <v>2.053400374605022</v>
       </c>
       <c r="C6">
-        <v>0.05208839999999999</v>
+        <v>0.03064319999999999</v>
       </c>
       <c r="D6">
-        <v>0.1980010096596488</v>
+        <v>0.1164824517397836</v>
       </c>
       <c r="E6">
-        <v>0.4168148434530319</v>
+        <v>0.245208925804977</v>
       </c>
       <c r="F6">
-        <v>0.1434003775908153</v>
+        <v>0.08436132518163103</v>
       </c>
       <c r="G6">
-        <v>0.3093075642788988</v>
+        <v>0.1819632308481573</v>
       </c>
       <c r="H6">
-        <v>0.2208249478988513</v>
+        <v>0.1299095968287388</v>
       </c>
       <c r="I6">
-        <v>4.830880049385009</v>
+        <v>2.84196910500831</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>3.270214661025812</v>
+        <v>1.923841813162741</v>
       </c>
       <c r="C7">
-        <v>0.02827656000000001</v>
+        <v>0.01663488</v>
       </c>
       <c r="D7">
-        <v>0.1348091980661437</v>
+        <v>0.07930720118453359</v>
       </c>
       <c r="E7">
-        <v>0.5996283712833093</v>
+        <v>0.3527567002808435</v>
       </c>
       <c r="F7">
-        <v>0.08419838684231347</v>
+        <v>0.04953325515251726</v>
       </c>
       <c r="G7">
-        <v>0.1586192637327687</v>
+        <v>0.09331447735802935</v>
       </c>
       <c r="H7">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I7">
-        <v>4.33095267792506</v>
+        <v>2.54786572634585</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.439989132438285</v>
+        <v>1.435426601376369</v>
       </c>
       <c r="C8">
-        <v>0.02381184</v>
+        <v>0.01400832</v>
       </c>
       <c r="D8">
-        <v>0.1263836231870098</v>
+        <v>0.0743505011105003</v>
       </c>
       <c r="E8">
-        <v>0.4972527956983538</v>
+        <v>0.2925299465743583</v>
       </c>
       <c r="F8">
-        <v>0.06446438992614631</v>
+        <v>0.03792389847614606</v>
       </c>
       <c r="G8">
-        <v>0.2062050428525992</v>
+        <v>0.1213088205654381</v>
       </c>
       <c r="H8">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I8">
-        <v>3.404112021581322</v>
+        <v>2.002612587442133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.926123226323059</v>
+        <v>1.133123291344382</v>
       </c>
       <c r="C9">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D9">
-        <v>0.09268132367047388</v>
+        <v>0.05452370081436676</v>
       </c>
       <c r="E9">
-        <v>0.5265029601511985</v>
+        <v>0.3097375904904971</v>
       </c>
       <c r="F9">
-        <v>0.04078359362674558</v>
+        <v>0.02399267046450056</v>
       </c>
       <c r="G9">
-        <v>0.1586192637327687</v>
+        <v>0.09331447735802935</v>
       </c>
       <c r="H9">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I9">
-        <v>2.805054765991602</v>
+        <v>1.650191870075369</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.424492222734386</v>
+        <v>0.8380176791703018</v>
       </c>
       <c r="C10">
-        <v>0.0223236</v>
+        <v>0.01313279999999999</v>
       </c>
       <c r="D10">
-        <v>0.02527672463740195</v>
+        <v>0.01487010022210004</v>
       </c>
       <c r="E10">
-        <v>0.40218976122661</v>
+        <v>0.2366051038469074</v>
       </c>
       <c r="F10">
-        <v>0.03946799383233445</v>
+        <v>0.02321871335274248</v>
       </c>
       <c r="G10">
-        <v>0.1506883005461302</v>
+        <v>0.08864875349012784</v>
       </c>
       <c r="H10">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I10">
-        <v>2.073639642472648</v>
+        <v>1.219906049950044</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.8459561175502366</v>
+        <v>0.4976693947465348</v>
       </c>
       <c r="C11">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D11">
-        <v>0.04634066183523694</v>
+        <v>0.02726185040718338</v>
       </c>
       <c r="E11">
-        <v>0.2340013156227549</v>
+        <v>0.1376611513291098</v>
       </c>
       <c r="F11">
-        <v>0.03815239403792332</v>
+        <v>0.02244475624098439</v>
       </c>
       <c r="G11">
-        <v>0.1268954109862149</v>
+        <v>0.07465158188642347</v>
       </c>
       <c r="H11">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I11">
-        <v>1.330583339023937</v>
+        <v>0.7827718143459642</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.5295964950779368</v>
+        <v>0.3115574929921487</v>
       </c>
       <c r="C12">
-        <v>0.01785888</v>
+        <v>0.01050624</v>
       </c>
       <c r="D12">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E12">
-        <v>0.1316257400377996</v>
+        <v>0.07743439762262427</v>
       </c>
       <c r="F12">
-        <v>0.01447159773852264</v>
+        <v>0.008513528229338907</v>
       </c>
       <c r="G12">
-        <v>0.08724059505302273</v>
+        <v>0.05132296254691614</v>
       </c>
       <c r="I12">
-        <v>0.7892188827864158</v>
+        <v>0.4642913214650614</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3111160928180623</v>
+        <v>0.1830271741009981</v>
       </c>
       <c r="C13">
-        <v>0.00892944</v>
+        <v>0.005253119999999998</v>
       </c>
       <c r="D13">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E13">
-        <v>0.06581287001889981</v>
+        <v>0.03871719881131214</v>
       </c>
       <c r="F13">
-        <v>0.03815239403792332</v>
+        <v>0.02244475624098439</v>
       </c>
       <c r="G13">
-        <v>0.1268954109862149</v>
+        <v>0.07465158188642347</v>
       </c>
       <c r="I13">
-        <v>0.5593317827402342</v>
+        <v>0.3290505311137515</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1887670675525322</v>
+        <v>0.1110501955219539</v>
       </c>
       <c r="C14">
-        <v>0.007441200000000002</v>
+        <v>0.004377600000000001</v>
       </c>
       <c r="D14">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E14">
-        <v>0.00731254111321109</v>
+        <v>0.004301910979034681</v>
       </c>
       <c r="F14">
-        <v>0.03946799383233445</v>
+        <v>0.02321871335274248</v>
       </c>
       <c r="G14">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="I14">
-        <v>0.3587296862430783</v>
+        <v>0.2110378802475002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1660451057175048</v>
+        <v>0.09768304235727436</v>
       </c>
       <c r="C15">
-        <v>0.01339416</v>
+        <v>0.00787968</v>
       </c>
       <c r="D15">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E15">
-        <v>0.02193762333963326</v>
+        <v>0.01290573293710404</v>
       </c>
       <c r="F15">
-        <v>0.02368079629940069</v>
+        <v>0.01393122801164548</v>
       </c>
       <c r="G15">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="H15">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I15">
-        <v>0.3457868211577578</v>
+        <v>0.2034236935306404</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1468188303186361</v>
+        <v>0.08637237429485323</v>
       </c>
       <c r="C16">
-        <v>0.00446472</v>
+        <v>0.002626559999999999</v>
       </c>
       <c r="D16">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E16">
-        <v>0.05850032890568872</v>
+        <v>0.03441528783227745</v>
       </c>
       <c r="F16">
-        <v>0.02104959671057837</v>
+        <v>0.01238331378812932</v>
       </c>
       <c r="G16">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="I16">
-        <v>0.3423615722403368</v>
+        <v>0.2014086462720124</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3792819783231431</v>
+        <v>0.2231286335950372</v>
       </c>
       <c r="C17">
-        <v>0.01339416</v>
+        <v>0.00787968</v>
       </c>
       <c r="D17">
-        <v>0.03370229951653592</v>
+        <v>0.0198268002961334</v>
       </c>
       <c r="E17">
-        <v>0.04387524667926652</v>
+        <v>0.02581146587420808</v>
       </c>
       <c r="F17">
-        <v>0.0513083919820348</v>
+        <v>0.03018432735856523</v>
       </c>
       <c r="G17">
-        <v>0.182412153292684</v>
+        <v>0.1073116489617338</v>
       </c>
       <c r="H17">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I17">
-        <v>0.7131752692894497</v>
+        <v>0.4195554559535418</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.9927749478688728</v>
+        <v>0.5840417690413882</v>
       </c>
       <c r="C18">
-        <v>0.01041768</v>
+        <v>0.00612864</v>
       </c>
       <c r="D18">
-        <v>0.07583017391220595</v>
+        <v>0.04461030066630017</v>
       </c>
       <c r="E18">
-        <v>0.2632514800755992</v>
+        <v>0.1548687952452485</v>
       </c>
       <c r="F18">
-        <v>0.06051759054291289</v>
+        <v>0.03560202714087178</v>
       </c>
       <c r="G18">
-        <v>0.40447912251856</v>
+        <v>0.2379519172629748</v>
       </c>
       <c r="H18">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I18">
-        <v>1.844075152901293</v>
+        <v>1.08485504882824</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.910392637360347</v>
+        <v>1.123869108384221</v>
       </c>
       <c r="C19">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D19">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E19">
-        <v>0.5191904190379873</v>
+        <v>0.3054356795114621</v>
       </c>
       <c r="F19">
-        <v>0.1157727819081811</v>
+        <v>0.06810822583471125</v>
       </c>
       <c r="G19">
-        <v>0.5710293494379669</v>
+        <v>0.3359321184889057</v>
       </c>
       <c r="H19">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I19">
-        <v>3.306423978147937</v>
+        <v>1.945143472388918</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>3.287693093206601</v>
+        <v>1.934124238674032</v>
       </c>
       <c r="C20">
-        <v>0.02827656000000001</v>
+        <v>0.01663488</v>
       </c>
       <c r="D20">
-        <v>0.1474475603848449</v>
+        <v>0.08674225129558349</v>
       </c>
       <c r="E20">
-        <v>0.6288785357361536</v>
+        <v>0.3699643441969827</v>
       </c>
       <c r="F20">
-        <v>0.1434003775908153</v>
+        <v>0.08436132518163103</v>
       </c>
       <c r="G20">
-        <v>0.8010272818504821</v>
+        <v>0.4712381106580482</v>
       </c>
       <c r="H20">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I20">
-        <v>5.091929645743609</v>
+        <v>2.995542549213462</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>3.680957817274377</v>
+        <v>2.165478812678105</v>
       </c>
       <c r="C21">
-        <v>0.03125303999999999</v>
+        <v>0.01838592</v>
       </c>
       <c r="D21">
-        <v>0.1937882222200818</v>
+        <v>0.114004101702767</v>
       </c>
       <c r="E21">
-        <v>0.5338155012644097</v>
+        <v>0.3140395014695316</v>
       </c>
       <c r="F21">
-        <v>0.1631343745069823</v>
+        <v>0.09597068185800223</v>
       </c>
       <c r="G21">
-        <v>0.9596465455832501</v>
+        <v>0.5645525880160774</v>
       </c>
       <c r="H21">
-        <v>0.3772426193272043</v>
+        <v>0.2219288945824288</v>
       </c>
       <c r="I21">
-        <v>5.939838120176305</v>
+        <v>3.494360500306912</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>2.571077373794212</v>
+        <v>1.51254479271106</v>
       </c>
       <c r="C22">
-        <v>0.04911192000000001</v>
+        <v>0.02889216000000002</v>
       </c>
       <c r="D22">
-        <v>0.1937882222200818</v>
+        <v>0.114004101702767</v>
       </c>
       <c r="E22">
-        <v>0.4826277134719319</v>
+        <v>0.2839261246162888</v>
       </c>
       <c r="F22">
-        <v>0.2236519650498952</v>
+        <v>0.1315727089988741</v>
       </c>
       <c r="G22">
-        <v>1.713088048313902</v>
+        <v>1.007796355466716</v>
       </c>
       <c r="H22">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I22">
-        <v>5.288551479824736</v>
+        <v>3.111213642702891</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.809017730711765</v>
+        <v>1.064231040418726</v>
       </c>
       <c r="C23">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D23">
-        <v>0.1558731352639787</v>
+        <v>0.09169895136961688</v>
       </c>
       <c r="E23">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F23">
-        <v>0.2828539557983972</v>
+        <v>0.1664007790279878</v>
       </c>
       <c r="G23">
-        <v>1.57033071095441</v>
+        <v>0.9238133258444903</v>
       </c>
       <c r="H23">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I23">
-        <v>4.359082986791375</v>
+        <v>2.564414567943063</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.037985192280116</v>
+        <v>1.198930814616652</v>
       </c>
       <c r="C24">
-        <v>0.05506488</v>
+        <v>0.03239423999999999</v>
       </c>
       <c r="D24">
-        <v>0.1263836231870098</v>
+        <v>0.0743505011105003</v>
       </c>
       <c r="E24">
-        <v>0.3729395967737656</v>
+        <v>0.2193974599307686</v>
       </c>
       <c r="F24">
-        <v>0.2618043590878184</v>
+        <v>0.1540174652398586</v>
       </c>
       <c r="G24">
-        <v>1.966878870286332</v>
+        <v>1.157099519239565</v>
       </c>
       <c r="H24">
-        <v>0.2392270268904223</v>
+        <v>0.1407353965644671</v>
       </c>
       <c r="I24">
-        <v>5.060283548505464</v>
+        <v>2.976925396701811</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.903401264488031</v>
+        <v>1.119756138179703</v>
       </c>
       <c r="C25">
-        <v>0.05060016000000002</v>
+        <v>0.02976767999999999</v>
       </c>
       <c r="D25">
-        <v>0.2064265845387826</v>
+        <v>0.121439151813817</v>
       </c>
       <c r="E25">
-        <v>0.4899402545851427</v>
+        <v>0.2882280355953236</v>
       </c>
       <c r="F25">
-        <v>0.2249675648443065</v>
+        <v>0.1323466661106321</v>
       </c>
       <c r="G25">
-        <v>1.927224054353139</v>
+        <v>1.133770899900056</v>
       </c>
       <c r="H25">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I25">
-        <v>4.912972356758827</v>
+        <v>2.890263370013901</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.938358128849612</v>
+        <v>1.140320989202288</v>
       </c>
       <c r="C26">
-        <v>0.03125303999999999</v>
+        <v>0.01838592</v>
       </c>
       <c r="D26">
-        <v>0.1474475603848449</v>
+        <v>0.08674225129558349</v>
       </c>
       <c r="E26">
-        <v>0.3436894323209211</v>
+        <v>0.20218981601463</v>
       </c>
       <c r="F26">
-        <v>0.2275987644331288</v>
+        <v>0.1338945803341482</v>
       </c>
       <c r="G26">
-        <v>2.109636207645824</v>
+        <v>1.24108254886179</v>
       </c>
       <c r="H26">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I26">
-        <v>4.908395607583756</v>
+        <v>2.88757090412281</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.197038925125306</v>
+        <v>1.29250088676941</v>
       </c>
       <c r="C27">
-        <v>0.0223236</v>
+        <v>0.01313279999999999</v>
       </c>
       <c r="D27">
-        <v>0.2906823333301222</v>
+        <v>0.1710061525541504</v>
       </c>
       <c r="E27">
-        <v>0.3802521378869768</v>
+        <v>0.2236993709098032</v>
       </c>
       <c r="F27">
-        <v>0.2275987644331288</v>
+        <v>0.1338945803341482</v>
       </c>
       <c r="G27">
-        <v>1.332401815355257</v>
+        <v>0.7838416098074467</v>
       </c>
       <c r="H27">
-        <v>0.1840207899157095</v>
+        <v>0.1082579973572824</v>
       </c>
       <c r="I27">
-        <v>4.6343183660465</v>
+        <v>2.72633339773224</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.287926772465412</v>
+        <v>1.345969499428127</v>
       </c>
       <c r="C28">
-        <v>0.04167072</v>
+        <v>0.02451456</v>
       </c>
       <c r="D28">
-        <v>0.1432347729452777</v>
+        <v>0.08426390125856686</v>
       </c>
       <c r="E28">
-        <v>0.3583145145473433</v>
+        <v>0.2107936379726993</v>
       </c>
       <c r="F28">
-        <v>0.2433859619660624</v>
+        <v>0.1431820656752452</v>
       </c>
       <c r="G28">
-        <v>1.697226121940626</v>
+        <v>0.9984649077309137</v>
       </c>
       <c r="H28">
-        <v>0.1380155924367821</v>
+        <v>0.0811934980179618</v>
       </c>
       <c r="I28">
-        <v>4.909774456301504</v>
+        <v>2.888382070083514</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.399788738422467</v>
+        <v>1.411777022700397</v>
       </c>
       <c r="C29">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D29">
-        <v>0.2190649468574837</v>
+        <v>0.128874201924867</v>
       </c>
       <c r="E29">
-        <v>0.4899402545851427</v>
+        <v>0.2882280355953236</v>
       </c>
       <c r="F29">
-        <v>0.2197051656666618</v>
+        <v>0.1292508376635998</v>
       </c>
       <c r="G29">
-        <v>1.276885073048788</v>
+        <v>0.7511815427321366</v>
       </c>
       <c r="H29">
-        <v>0.1380155924367821</v>
+        <v>0.0811934980179618</v>
       </c>
       <c r="I29">
-        <v>4.764235131017326</v>
+        <v>2.802762418634286</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>3.207292305174968</v>
+        <v>1.886825081322088</v>
       </c>
       <c r="C30">
-        <v>0.03720600000000001</v>
+        <v>0.021888</v>
       </c>
       <c r="D30">
-        <v>0.1727242850222465</v>
+        <v>0.1016123515176836</v>
       </c>
       <c r="E30">
-        <v>0.4680026312455098</v>
+        <v>0.2753223026582196</v>
       </c>
       <c r="F30">
-        <v>0.1434003775908153</v>
+        <v>0.08436132518163103</v>
       </c>
       <c r="G30">
-        <v>0.9517155823966122</v>
+        <v>0.559886864148176</v>
       </c>
       <c r="H30">
-        <v>0.1196135134452112</v>
+        <v>0.07036769828223353</v>
       </c>
       <c r="I30">
-        <v>5.099954694875362</v>
+        <v>3.000263623110032</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>3.109413084962544</v>
+        <v>1.829243498458855</v>
       </c>
       <c r="C31">
-        <v>0.05506488</v>
+        <v>0.03239423999999999</v>
       </c>
       <c r="D31">
-        <v>0.1348091980661437</v>
+        <v>0.07930720118453359</v>
       </c>
       <c r="E31">
-        <v>0.7093164879814758</v>
+        <v>0.4172853649663639</v>
       </c>
       <c r="F31">
-        <v>0.06841118930937978</v>
+        <v>0.0402457698114203</v>
       </c>
       <c r="G31">
-        <v>0.4837887543849441</v>
+        <v>0.2846091559419894</v>
       </c>
       <c r="H31">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I31">
-        <v>4.579205673696058</v>
+        <v>2.693911030098891</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.661965221134316</v>
+        <v>1.566013405369779</v>
       </c>
       <c r="C32">
-        <v>0.0669708</v>
+        <v>0.03939840000000001</v>
       </c>
       <c r="D32">
-        <v>0.09689411111004091</v>
+        <v>0.0570020508513835</v>
       </c>
       <c r="E32">
-        <v>0.6215659946229425</v>
+        <v>0.3656624332179476</v>
       </c>
       <c r="F32">
-        <v>0.07104238889820205</v>
+        <v>0.04179368403493643</v>
       </c>
       <c r="G32">
-        <v>0.40447912251856</v>
+        <v>0.2379519172629748</v>
       </c>
       <c r="H32">
-        <v>0.07360831596628377</v>
+        <v>0.04330319894291293</v>
       </c>
       <c r="I32">
-        <v>3.996525954250345</v>
+        <v>2.351125089679934</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.933114599195374</v>
+        <v>1.1372362615489</v>
       </c>
       <c r="C33">
-        <v>0.06994728000000001</v>
+        <v>0.04114944000000001</v>
       </c>
       <c r="D33">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E33">
-        <v>0.6215659946229425</v>
+        <v>0.3656624332179476</v>
       </c>
       <c r="F33">
-        <v>0.04736159259880138</v>
+        <v>0.02786245602329097</v>
       </c>
       <c r="G33">
-        <v>0.2537908219724297</v>
+        <v>0.1493031637728469</v>
       </c>
       <c r="H33">
-        <v>0.07360831596628377</v>
+        <v>0.04330319894291293</v>
       </c>
       <c r="I33">
-        <v>3.108921077784574</v>
+        <v>1.828954054468332</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.443718498133255</v>
+        <v>0.849328347232723</v>
       </c>
       <c r="C34">
-        <v>0.05357664000000002</v>
+        <v>0.03151872</v>
       </c>
       <c r="D34">
-        <v>0.06319181159350491</v>
+        <v>0.03717525055525015</v>
       </c>
       <c r="E34">
-        <v>0.409502302339821</v>
+        <v>0.240907014825942</v>
       </c>
       <c r="F34">
-        <v>0.02762759568263413</v>
+        <v>0.01625309934691972</v>
       </c>
       <c r="G34">
-        <v>0.2537908219724297</v>
+        <v>0.1493031637728469</v>
       </c>
       <c r="I34">
-        <v>2.251407669721645</v>
+        <v>1.324485595733682</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.006757693613505</v>
+        <v>0.5922677094504213</v>
       </c>
       <c r="C35">
-        <v>0.02678832000000001</v>
+        <v>0.01575936</v>
       </c>
       <c r="D35">
-        <v>0.0421278743956699</v>
+        <v>0.02478350037016674</v>
       </c>
       <c r="E35">
-        <v>0.3363768912077103</v>
+        <v>0.1978879050355953</v>
       </c>
       <c r="F35">
-        <v>0.02894319547704528</v>
+        <v>0.01702705645867781</v>
       </c>
       <c r="G35">
-        <v>0.1506883005461302</v>
+        <v>0.08864875349012784</v>
       </c>
       <c r="H35">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I35">
-        <v>1.610084354231631</v>
+        <v>0.9472000845407172</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.5750404187479916</v>
+        <v>0.3382917993215078</v>
       </c>
       <c r="C36">
-        <v>0.05804136000000001</v>
+        <v>0.03414528000000001</v>
       </c>
       <c r="D36">
-        <v>0.00421278743956699</v>
+        <v>0.002478350037016675</v>
       </c>
       <c r="E36">
-        <v>0.160875904490644</v>
+        <v>0.09464204153876295</v>
       </c>
       <c r="F36">
-        <v>0.08551398663672466</v>
+        <v>0.05030721226427532</v>
       </c>
       <c r="G36">
-        <v>0.2141360060392377</v>
+        <v>0.1259745444333396</v>
       </c>
       <c r="H36">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I36">
-        <v>1.107021502849951</v>
+        <v>0.6512521274627664</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.3041247199457461</v>
+        <v>0.1789142038964816</v>
       </c>
       <c r="C37">
-        <v>0.02976480000000001</v>
+        <v>0.01751040000000001</v>
       </c>
       <c r="D37">
-        <v>0.00421278743956699</v>
+        <v>0.002478350037016675</v>
       </c>
       <c r="E37">
-        <v>0.05850032890568872</v>
+        <v>0.03441528783227745</v>
       </c>
       <c r="F37">
-        <v>0.05393959157085709</v>
+        <v>0.0317322415820814</v>
       </c>
       <c r="G37">
-        <v>0.1665502269194071</v>
+        <v>0.09798020122593083</v>
       </c>
       <c r="H37">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I37">
-        <v>0.6446955732686225</v>
+        <v>0.3792693841773803</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2184804022598752</v>
+        <v>0.1285303188911505</v>
       </c>
       <c r="C38">
-        <v>0.007441200000000002</v>
+        <v>0.004377600000000001</v>
       </c>
       <c r="D38">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="F38">
-        <v>0.03420559465468989</v>
+        <v>0.02012288490571015</v>
       </c>
       <c r="G38">
-        <v>0.1586192637327687</v>
+        <v>0.09331447735802935</v>
       </c>
       <c r="H38">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I38">
-        <v>0.4731772330053952</v>
+        <v>0.2783664805682439</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1590537328451891</v>
+        <v>0.09357007215275756</v>
       </c>
       <c r="C39">
-        <v>0.01041768</v>
+        <v>0.00612864</v>
       </c>
       <c r="D39">
-        <v>0.02106393719783495</v>
+        <v>0.01239175018508337</v>
       </c>
       <c r="F39">
-        <v>0.01578719753293378</v>
+        <v>0.009287485341096991</v>
       </c>
       <c r="G39">
-        <v>0.1427573373594917</v>
+        <v>0.08398302962222642</v>
       </c>
       <c r="H39">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I39">
-        <v>0.358280924431235</v>
+        <v>0.2107738771690285</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1608015760632682</v>
+        <v>0.09459831470388678</v>
       </c>
       <c r="C40">
-        <v>0.00892944</v>
+        <v>0.005253119999999998</v>
       </c>
       <c r="D40">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E40">
-        <v>0.06581287001889981</v>
+        <v>0.03871719881131214</v>
       </c>
       <c r="F40">
-        <v>0.02631199588822298</v>
+        <v>0.01547914223516165</v>
       </c>
       <c r="G40">
-        <v>0.1268954109862149</v>
+        <v>0.07465158188642347</v>
       </c>
       <c r="H40">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I40">
-        <v>0.4155789468273107</v>
+        <v>0.2444818574465456</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.4107431562485651</v>
+        <v>0.2416369995153629</v>
       </c>
       <c r="C41">
-        <v>0.01190592</v>
+        <v>0.007004159999999999</v>
       </c>
       <c r="D41">
-        <v>0.01685114975826796</v>
+        <v>0.009913400148066699</v>
       </c>
       <c r="E41">
-        <v>0.05118778779247762</v>
+        <v>0.03011337685324274</v>
       </c>
       <c r="F41">
-        <v>0.02499639609381182</v>
+        <v>0.01470518512340358</v>
       </c>
       <c r="G41">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H41">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I41">
-        <v>0.7231595290548688</v>
+        <v>0.4254291182054767</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.9525745538530551</v>
+        <v>0.5603921903654165</v>
       </c>
       <c r="C42">
-        <v>0.02381184</v>
+        <v>0.01400832</v>
       </c>
       <c r="D42">
-        <v>0.06319181159350491</v>
+        <v>0.03717525055525015</v>
       </c>
       <c r="E42">
-        <v>0.2925016445284435</v>
+        <v>0.1720764391613872</v>
       </c>
       <c r="F42">
-        <v>0.06446438992614631</v>
+        <v>0.03792389847614606</v>
       </c>
       <c r="G42">
-        <v>0.3489623802120909</v>
+        <v>0.2052918501876645</v>
       </c>
       <c r="H42">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I42">
-        <v>1.800712857087954</v>
+        <v>1.059345347953049</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.878931459434927</v>
+        <v>1.105360742463894</v>
       </c>
       <c r="C43">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D43">
-        <v>0.07161738647263884</v>
+        <v>0.04213195062928343</v>
       </c>
       <c r="E43">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F43">
-        <v>0.1105103827305365</v>
+        <v>0.06501239738767889</v>
       </c>
       <c r="G43">
-        <v>0.4362029752651133</v>
+        <v>0.2566148127345806</v>
       </c>
       <c r="H43">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I43">
-        <v>3.089646398802705</v>
+        <v>1.81761491095505</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.06571700451057</v>
+        <v>1.803537434680624</v>
       </c>
       <c r="C44">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D44">
-        <v>0.1600859227035458</v>
+        <v>0.09417730140663358</v>
       </c>
       <c r="E44">
-        <v>0.6361910768493645</v>
+        <v>0.3742662551760172</v>
       </c>
       <c r="F44">
-        <v>0.1473471769740487</v>
+        <v>0.08668319651690522</v>
       </c>
       <c r="G44">
-        <v>0.7137866867974592</v>
+        <v>0.4199151481111316</v>
       </c>
       <c r="H44">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I44">
-        <v>4.854375701784413</v>
+        <v>2.855791414305681</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>3.576087224189635</v>
+        <v>2.103784259610352</v>
       </c>
       <c r="C45">
-        <v>0.03125303999999999</v>
+        <v>0.01838592</v>
       </c>
       <c r="D45">
-        <v>0.1811498599013807</v>
+        <v>0.106569051591717</v>
       </c>
       <c r="E45">
-        <v>0.5484405834908318</v>
+        <v>0.3226433234276008</v>
       </c>
       <c r="F45">
-        <v>0.1473471769740487</v>
+        <v>0.08668319651690522</v>
       </c>
       <c r="G45">
-        <v>0.8327511345970356</v>
+        <v>0.4899010061296543</v>
       </c>
       <c r="H45">
-        <v>0.2116239084030658</v>
+        <v>0.1244966969608747</v>
       </c>
       <c r="I45">
-        <v>5.528652927555998</v>
+        <v>3.252463454237104</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>3.009786021532039</v>
+        <v>1.77063367304449</v>
       </c>
       <c r="C46">
-        <v>0.04315896</v>
+        <v>0.02539007999999999</v>
       </c>
       <c r="D46">
-        <v>0.2274905217366175</v>
+        <v>0.1338309019989002</v>
       </c>
       <c r="E46">
-        <v>0.4899402545851427</v>
+        <v>0.2882280355953236</v>
       </c>
       <c r="F46">
-        <v>0.2815383560039858</v>
+        <v>0.1656268219162295</v>
       </c>
       <c r="G46">
-        <v>1.609985526887602</v>
+        <v>0.9471419451839977</v>
       </c>
       <c r="H46">
-        <v>0.1656187109241385</v>
+        <v>0.09743219762155407</v>
       </c>
       <c r="I46">
-        <v>5.827518351669526</v>
+        <v>3.428283655360496</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.062454997333221</v>
+        <v>1.213326210332461</v>
       </c>
       <c r="C47">
-        <v>0.05357664000000002</v>
+        <v>0.03151872</v>
       </c>
       <c r="D47">
-        <v>0.1305964106265767</v>
+        <v>0.07682885114751685</v>
       </c>
       <c r="E47">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F47">
-        <v>0.3446871461357209</v>
+        <v>0.2027767632806175</v>
       </c>
       <c r="G47">
-        <v>1.134127735689296</v>
+        <v>0.667198513109909</v>
       </c>
       <c r="H47">
-        <v>0.1564176714283531</v>
+        <v>0.09201929775369</v>
       </c>
       <c r="I47">
-        <v>4.313300526892623</v>
+        <v>2.53748110338724</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.261709124194228</v>
+        <v>1.33054586116119</v>
       </c>
       <c r="C48">
-        <v>0.06101783999999999</v>
+        <v>0.03589632</v>
       </c>
       <c r="D48">
-        <v>0.3159590579675244</v>
+        <v>0.1858762527762503</v>
       </c>
       <c r="E48">
-        <v>0.4606900901322986</v>
+        <v>0.2710203916791848</v>
       </c>
       <c r="F48">
-        <v>0.3328467479860207</v>
+        <v>0.1958111492747948</v>
       </c>
       <c r="G48">
-        <v>1.483090115901387</v>
+        <v>0.8724903632975745</v>
       </c>
       <c r="H48">
-        <v>0.2208249478988513</v>
+        <v>0.1299095968287388</v>
       </c>
       <c r="I48">
-        <v>5.13613792408031</v>
+        <v>3.021549935017733</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.903401264488031</v>
+        <v>1.119756138179703</v>
       </c>
       <c r="C49">
-        <v>0.05060016000000002</v>
+        <v>0.02976767999999999</v>
       </c>
       <c r="D49">
-        <v>0.2064265845387826</v>
+        <v>0.121439151813817</v>
       </c>
       <c r="E49">
-        <v>0.4899402545851427</v>
+        <v>0.2882280355953236</v>
       </c>
       <c r="F49">
-        <v>0.2249675648443065</v>
+        <v>0.1323466661106321</v>
       </c>
       <c r="G49">
-        <v>1.927224054353139</v>
+        <v>1.133770899900056</v>
       </c>
       <c r="H49">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I49">
-        <v>4.912972356758827</v>
+        <v>2.890263370013901</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_SOx.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.256512397479888</v>
+        <v>2.13586441249254</v>
       </c>
       <c r="C2">
-        <v>0.01751040000000001</v>
+        <v>0.02976480000000001</v>
       </c>
       <c r="D2">
-        <v>0.08426390125856686</v>
+        <v>0.1432347729452777</v>
       </c>
       <c r="E2">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F2">
-        <v>0.1160935667637124</v>
+        <v>0.1973399691616724</v>
       </c>
       <c r="G2">
-        <v>0.933144773580293</v>
+        <v>1.586192637327687</v>
       </c>
       <c r="H2">
-        <v>0.04871609881077704</v>
+        <v>0.08280935546206926</v>
       </c>
       <c r="I2">
-        <v>2.68854433076111</v>
+        <v>4.570083167502645</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.256512397479888</v>
+        <v>2.13586441249254</v>
       </c>
       <c r="C3">
-        <v>0.02626559999999999</v>
+        <v>0.0446472</v>
       </c>
       <c r="D3">
-        <v>0.1016123515176836</v>
+        <v>0.1727242850222465</v>
       </c>
       <c r="E3">
-        <v>0.2280012818888381</v>
+        <v>0.3875646790001879</v>
       </c>
       <c r="F3">
-        <v>0.1377643658929386</v>
+        <v>0.2341767634051846</v>
       </c>
       <c r="G3">
-        <v>0.8911532587691807</v>
+        <v>1.514813968647941</v>
       </c>
       <c r="H3">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I3">
-        <v>2.673786654755713</v>
+        <v>4.544997545542813</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.487866971483957</v>
+        <v>2.529129136560314</v>
       </c>
       <c r="C4">
-        <v>0.021888</v>
+        <v>0.03720600000000001</v>
       </c>
       <c r="D4">
-        <v>0.114004101702767</v>
+        <v>0.1937882222200818</v>
       </c>
       <c r="E4">
-        <v>0.2624165697211155</v>
+        <v>0.4460650079058764</v>
       </c>
       <c r="F4">
-        <v>0.1547914223516165</v>
+        <v>0.2631199588822298</v>
       </c>
       <c r="G4">
-        <v>0.5412239686765706</v>
+        <v>0.919991729650058</v>
       </c>
       <c r="H4">
-        <v>0.09743219762155407</v>
+        <v>0.1656187109241385</v>
       </c>
       <c r="I4">
-        <v>2.679623231557581</v>
+        <v>4.554918766142698</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.703797907221091</v>
+        <v>2.896176212356904</v>
       </c>
       <c r="C5">
-        <v>0.01400832</v>
+        <v>0.02381184</v>
       </c>
       <c r="D5">
-        <v>0.1164824517397836</v>
+        <v>0.1980010096596488</v>
       </c>
       <c r="E5">
-        <v>0.2839261246162888</v>
+        <v>0.4826277134719319</v>
       </c>
       <c r="F5">
-        <v>0.112223781204922</v>
+        <v>0.1907619701896164</v>
       </c>
       <c r="G5">
-        <v>0.3732579094321174</v>
+        <v>0.6344770549310749</v>
       </c>
       <c r="H5">
-        <v>0.04330319894291293</v>
+        <v>0.07360831596628377</v>
       </c>
       <c r="I5">
-        <v>2.646999693157115</v>
+        <v>4.499464116575459</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.053400374605022</v>
+        <v>3.490442906503763</v>
       </c>
       <c r="C6">
-        <v>0.03064319999999999</v>
+        <v>0.05208839999999999</v>
       </c>
       <c r="D6">
-        <v>0.1164824517397836</v>
+        <v>0.1980010096596488</v>
       </c>
       <c r="E6">
-        <v>0.245208925804977</v>
+        <v>0.4168148434530319</v>
       </c>
       <c r="F6">
-        <v>0.08436132518163103</v>
+        <v>0.1434003775908153</v>
       </c>
       <c r="G6">
-        <v>0.1819632308481573</v>
+        <v>0.3093075642788988</v>
       </c>
       <c r="H6">
-        <v>0.1299095968287388</v>
+        <v>0.2208249478988513</v>
       </c>
       <c r="I6">
-        <v>2.84196910500831</v>
+        <v>4.830880049385009</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.923841813162741</v>
+        <v>3.270214661025812</v>
       </c>
       <c r="C7">
-        <v>0.01663488</v>
+        <v>0.02827656000000001</v>
       </c>
       <c r="D7">
-        <v>0.07930720118453359</v>
+        <v>0.1348091980661437</v>
       </c>
       <c r="E7">
-        <v>0.3527567002808435</v>
+        <v>0.5996283712833093</v>
       </c>
       <c r="F7">
-        <v>0.04953325515251726</v>
+        <v>0.08419838684231347</v>
       </c>
       <c r="G7">
-        <v>0.09331447735802935</v>
+        <v>0.1586192637327687</v>
       </c>
       <c r="H7">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I7">
-        <v>2.54786572634585</v>
+        <v>4.33095267792506</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.435426601376369</v>
+        <v>2.439989132438285</v>
       </c>
       <c r="C8">
-        <v>0.01400832</v>
+        <v>0.02381184</v>
       </c>
       <c r="D8">
-        <v>0.0743505011105003</v>
+        <v>0.1263836231870098</v>
       </c>
       <c r="E8">
-        <v>0.2925299465743583</v>
+        <v>0.4972527956983538</v>
       </c>
       <c r="F8">
-        <v>0.03792389847614606</v>
+        <v>0.06446438992614631</v>
       </c>
       <c r="G8">
-        <v>0.1213088205654381</v>
+        <v>0.2062050428525992</v>
       </c>
       <c r="H8">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I8">
-        <v>2.002612587442133</v>
+        <v>3.404112021581322</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.133123291344382</v>
+        <v>1.926123226323059</v>
       </c>
       <c r="C9">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D9">
-        <v>0.05452370081436676</v>
+        <v>0.09268132367047388</v>
       </c>
       <c r="E9">
-        <v>0.3097375904904971</v>
+        <v>0.5265029601511985</v>
       </c>
       <c r="F9">
-        <v>0.02399267046450056</v>
+        <v>0.04078359362674558</v>
       </c>
       <c r="G9">
-        <v>0.09331447735802935</v>
+        <v>0.1586192637327687</v>
       </c>
       <c r="H9">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I9">
-        <v>1.650191870075369</v>
+        <v>2.805054765991602</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.8380176791703018</v>
+        <v>1.424492222734386</v>
       </c>
       <c r="C10">
-        <v>0.01313279999999999</v>
+        <v>0.0223236</v>
       </c>
       <c r="D10">
-        <v>0.01487010022210004</v>
+        <v>0.02527672463740195</v>
       </c>
       <c r="E10">
-        <v>0.2366051038469074</v>
+        <v>0.40218976122661</v>
       </c>
       <c r="F10">
-        <v>0.02321871335274248</v>
+        <v>0.03946799383233445</v>
       </c>
       <c r="G10">
-        <v>0.08864875349012784</v>
+        <v>0.1506883005461302</v>
       </c>
       <c r="H10">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I10">
-        <v>1.219906049950044</v>
+        <v>2.073639642472648</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4976693947465348</v>
+        <v>0.8459561175502366</v>
       </c>
       <c r="C11">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D11">
-        <v>0.02726185040718338</v>
+        <v>0.04634066183523694</v>
       </c>
       <c r="E11">
-        <v>0.1376611513291098</v>
+        <v>0.2340013156227549</v>
       </c>
       <c r="F11">
-        <v>0.02244475624098439</v>
+        <v>0.03815239403792332</v>
       </c>
       <c r="G11">
-        <v>0.07465158188642347</v>
+        <v>0.1268954109862149</v>
       </c>
       <c r="H11">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I11">
-        <v>0.7827718143459642</v>
+        <v>1.330583339023937</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.3115574929921487</v>
+        <v>0.5295964950779368</v>
       </c>
       <c r="C12">
-        <v>0.01050624</v>
+        <v>0.01785888</v>
       </c>
       <c r="D12">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E12">
-        <v>0.07743439762262427</v>
+        <v>0.1316257400377996</v>
       </c>
       <c r="F12">
-        <v>0.008513528229338907</v>
+        <v>0.01447159773852264</v>
       </c>
       <c r="G12">
-        <v>0.05132296254691614</v>
+        <v>0.08724059505302273</v>
       </c>
       <c r="I12">
-        <v>0.4642913214650614</v>
+        <v>0.7892188827864158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1830271741009981</v>
+        <v>0.3111160928180623</v>
       </c>
       <c r="C13">
-        <v>0.005253119999999998</v>
+        <v>0.00892944</v>
       </c>
       <c r="D13">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E13">
-        <v>0.03871719881131214</v>
+        <v>0.06581287001889981</v>
       </c>
       <c r="F13">
-        <v>0.02244475624098439</v>
+        <v>0.03815239403792332</v>
       </c>
       <c r="G13">
-        <v>0.07465158188642347</v>
+        <v>0.1268954109862149</v>
       </c>
       <c r="I13">
-        <v>0.3290505311137515</v>
+        <v>0.5593317827402342</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1110501955219539</v>
+        <v>0.1887670675525322</v>
       </c>
       <c r="C14">
-        <v>0.004377600000000001</v>
+        <v>0.007441200000000002</v>
       </c>
       <c r="D14">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E14">
-        <v>0.004301910979034681</v>
+        <v>0.00731254111321109</v>
       </c>
       <c r="F14">
-        <v>0.02321871335274248</v>
+        <v>0.03946799383233445</v>
       </c>
       <c r="G14">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="I14">
-        <v>0.2110378802475002</v>
+        <v>0.3587296862430783</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.09768304235727436</v>
+        <v>0.1660451057175048</v>
       </c>
       <c r="C15">
-        <v>0.00787968</v>
+        <v>0.01339416</v>
       </c>
       <c r="D15">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E15">
-        <v>0.01290573293710404</v>
+        <v>0.02193762333963326</v>
       </c>
       <c r="F15">
-        <v>0.01393122801164548</v>
+        <v>0.02368079629940069</v>
       </c>
       <c r="G15">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="H15">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I15">
-        <v>0.2034236935306404</v>
+        <v>0.3457868211577578</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.08637237429485323</v>
+        <v>0.1468188303186361</v>
       </c>
       <c r="C16">
-        <v>0.002626559999999999</v>
+        <v>0.00446472</v>
       </c>
       <c r="D16">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E16">
-        <v>0.03441528783227745</v>
+        <v>0.05850032890568872</v>
       </c>
       <c r="F16">
-        <v>0.01238331378812932</v>
+        <v>0.02104959671057837</v>
       </c>
       <c r="G16">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="I16">
-        <v>0.2014086462720124</v>
+        <v>0.3423615722403368</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2231286335950372</v>
+        <v>0.3792819783231431</v>
       </c>
       <c r="C17">
-        <v>0.00787968</v>
+        <v>0.01339416</v>
       </c>
       <c r="D17">
-        <v>0.0198268002961334</v>
+        <v>0.03370229951653592</v>
       </c>
       <c r="E17">
-        <v>0.02581146587420808</v>
+        <v>0.04387524667926652</v>
       </c>
       <c r="F17">
-        <v>0.03018432735856523</v>
+        <v>0.0513083919820348</v>
       </c>
       <c r="G17">
-        <v>0.1073116489617338</v>
+        <v>0.182412153292684</v>
       </c>
       <c r="H17">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I17">
-        <v>0.4195554559535418</v>
+        <v>0.7131752692894497</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.5840417690413882</v>
+        <v>0.9927749478688728</v>
       </c>
       <c r="C18">
-        <v>0.00612864</v>
+        <v>0.01041768</v>
       </c>
       <c r="D18">
-        <v>0.04461030066630017</v>
+        <v>0.07583017391220595</v>
       </c>
       <c r="E18">
-        <v>0.1548687952452485</v>
+        <v>0.2632514800755992</v>
       </c>
       <c r="F18">
-        <v>0.03560202714087178</v>
+        <v>0.06051759054291289</v>
       </c>
       <c r="G18">
-        <v>0.2379519172629748</v>
+        <v>0.40447912251856</v>
       </c>
       <c r="H18">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I18">
-        <v>1.08485504882824</v>
+        <v>1.844075152901293</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.123869108384221</v>
+        <v>1.910392637360347</v>
       </c>
       <c r="C19">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D19">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E19">
-        <v>0.3054356795114621</v>
+        <v>0.5191904190379873</v>
       </c>
       <c r="F19">
-        <v>0.06810822583471125</v>
+        <v>0.1157727819081811</v>
       </c>
       <c r="G19">
-        <v>0.3359321184889057</v>
+        <v>0.5710293494379669</v>
       </c>
       <c r="H19">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I19">
-        <v>1.945143472388918</v>
+        <v>3.306423978147937</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.934124238674032</v>
+        <v>3.287693093206601</v>
       </c>
       <c r="C20">
-        <v>0.01663488</v>
+        <v>0.02827656000000001</v>
       </c>
       <c r="D20">
-        <v>0.08674225129558349</v>
+        <v>0.1474475603848449</v>
       </c>
       <c r="E20">
-        <v>0.3699643441969827</v>
+        <v>0.6288785357361536</v>
       </c>
       <c r="F20">
-        <v>0.08436132518163103</v>
+        <v>0.1434003775908153</v>
       </c>
       <c r="G20">
-        <v>0.4712381106580482</v>
+        <v>0.8010272818504821</v>
       </c>
       <c r="H20">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I20">
-        <v>2.995542549213462</v>
+        <v>5.091929645743609</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.165478812678105</v>
+        <v>3.680957817274377</v>
       </c>
       <c r="C21">
-        <v>0.01838592</v>
+        <v>0.03125303999999999</v>
       </c>
       <c r="D21">
-        <v>0.114004101702767</v>
+        <v>0.1937882222200818</v>
       </c>
       <c r="E21">
-        <v>0.3140395014695316</v>
+        <v>0.5338155012644097</v>
       </c>
       <c r="F21">
-        <v>0.09597068185800223</v>
+        <v>0.1631343745069823</v>
       </c>
       <c r="G21">
-        <v>0.5645525880160774</v>
+        <v>0.9596465455832501</v>
       </c>
       <c r="H21">
-        <v>0.2219288945824288</v>
+        <v>0.3772426193272043</v>
       </c>
       <c r="I21">
-        <v>3.494360500306912</v>
+        <v>5.939838120176305</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.51254479271106</v>
+        <v>2.571077373794212</v>
       </c>
       <c r="C22">
-        <v>0.02889216000000002</v>
+        <v>0.04911192000000001</v>
       </c>
       <c r="D22">
-        <v>0.114004101702767</v>
+        <v>0.1937882222200818</v>
       </c>
       <c r="E22">
-        <v>0.2839261246162888</v>
+        <v>0.4826277134719319</v>
       </c>
       <c r="F22">
-        <v>0.1315727089988741</v>
+        <v>0.2236519650498952</v>
       </c>
       <c r="G22">
-        <v>1.007796355466716</v>
+        <v>1.713088048313902</v>
       </c>
       <c r="H22">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I22">
-        <v>3.111213642702891</v>
+        <v>5.288551479824736</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.064231040418726</v>
+        <v>1.809017730711765</v>
       </c>
       <c r="C23">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D23">
-        <v>0.09169895136961688</v>
+        <v>0.1558731352639787</v>
       </c>
       <c r="E23">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F23">
-        <v>0.1664007790279878</v>
+        <v>0.2828539557983972</v>
       </c>
       <c r="G23">
-        <v>0.9238133258444903</v>
+        <v>1.57033071095441</v>
       </c>
       <c r="H23">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I23">
-        <v>2.564414567943063</v>
+        <v>4.359082986791375</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.198930814616652</v>
+        <v>2.037985192280116</v>
       </c>
       <c r="C24">
-        <v>0.03239423999999999</v>
+        <v>0.05506488</v>
       </c>
       <c r="D24">
-        <v>0.0743505011105003</v>
+        <v>0.1263836231870098</v>
       </c>
       <c r="E24">
-        <v>0.2193974599307686</v>
+        <v>0.3729395967737656</v>
       </c>
       <c r="F24">
-        <v>0.1540174652398586</v>
+        <v>0.2618043590878184</v>
       </c>
       <c r="G24">
-        <v>1.157099519239565</v>
+        <v>1.966878870286332</v>
       </c>
       <c r="H24">
-        <v>0.1407353965644671</v>
+        <v>0.2392270268904223</v>
       </c>
       <c r="I24">
-        <v>2.976925396701811</v>
+        <v>5.060283548505464</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.119756138179703</v>
+        <v>1.903401264488031</v>
       </c>
       <c r="C25">
-        <v>0.02976767999999999</v>
+        <v>0.05060016000000002</v>
       </c>
       <c r="D25">
-        <v>0.121439151813817</v>
+        <v>0.2064265845387826</v>
       </c>
       <c r="E25">
-        <v>0.2882280355953236</v>
+        <v>0.4899402545851427</v>
       </c>
       <c r="F25">
-        <v>0.1323466661106321</v>
+        <v>0.2249675648443065</v>
       </c>
       <c r="G25">
-        <v>1.133770899900056</v>
+        <v>1.927224054353139</v>
       </c>
       <c r="H25">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I25">
-        <v>2.890263370013901</v>
+        <v>4.912972356758827</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.140320989202288</v>
+        <v>1.938358128849612</v>
       </c>
       <c r="C26">
-        <v>0.01838592</v>
+        <v>0.03125303999999999</v>
       </c>
       <c r="D26">
-        <v>0.08674225129558349</v>
+        <v>0.1474475603848449</v>
       </c>
       <c r="E26">
-        <v>0.20218981601463</v>
+        <v>0.3436894323209211</v>
       </c>
       <c r="F26">
-        <v>0.1338945803341482</v>
+        <v>0.2275987644331288</v>
       </c>
       <c r="G26">
-        <v>1.24108254886179</v>
+        <v>2.109636207645824</v>
       </c>
       <c r="H26">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I26">
-        <v>2.88757090412281</v>
+        <v>4.908395607583756</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.29250088676941</v>
+        <v>2.197038925125306</v>
       </c>
       <c r="C27">
-        <v>0.01313279999999999</v>
+        <v>0.0223236</v>
       </c>
       <c r="D27">
-        <v>0.1710061525541504</v>
+        <v>0.2906823333301222</v>
       </c>
       <c r="E27">
-        <v>0.2236993709098032</v>
+        <v>0.3802521378869768</v>
       </c>
       <c r="F27">
-        <v>0.1338945803341482</v>
+        <v>0.2275987644331288</v>
       </c>
       <c r="G27">
-        <v>0.7838416098074467</v>
+        <v>1.332401815355257</v>
       </c>
       <c r="H27">
-        <v>0.1082579973572824</v>
+        <v>0.1840207899157095</v>
       </c>
       <c r="I27">
-        <v>2.72633339773224</v>
+        <v>4.6343183660465</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.345969499428127</v>
+        <v>2.287926772465412</v>
       </c>
       <c r="C28">
-        <v>0.02451456</v>
+        <v>0.04167072</v>
       </c>
       <c r="D28">
-        <v>0.08426390125856686</v>
+        <v>0.1432347729452777</v>
       </c>
       <c r="E28">
-        <v>0.2107936379726993</v>
+        <v>0.3583145145473433</v>
       </c>
       <c r="F28">
-        <v>0.1431820656752452</v>
+        <v>0.2433859619660624</v>
       </c>
       <c r="G28">
-        <v>0.9984649077309137</v>
+        <v>1.697226121940626</v>
       </c>
       <c r="H28">
-        <v>0.0811934980179618</v>
+        <v>0.1380155924367821</v>
       </c>
       <c r="I28">
-        <v>2.888382070083514</v>
+        <v>4.909774456301504</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.411777022700397</v>
+        <v>2.399788738422467</v>
       </c>
       <c r="C29">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D29">
-        <v>0.128874201924867</v>
+        <v>0.2190649468574837</v>
       </c>
       <c r="E29">
-        <v>0.2882280355953236</v>
+        <v>0.4899402545851427</v>
       </c>
       <c r="F29">
-        <v>0.1292508376635998</v>
+        <v>0.2197051656666618</v>
       </c>
       <c r="G29">
-        <v>0.7511815427321366</v>
+        <v>1.276885073048788</v>
       </c>
       <c r="H29">
-        <v>0.0811934980179618</v>
+        <v>0.1380155924367821</v>
       </c>
       <c r="I29">
-        <v>2.802762418634286</v>
+        <v>4.764235131017326</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.886825081322088</v>
+        <v>3.207292305174968</v>
       </c>
       <c r="C30">
-        <v>0.021888</v>
+        <v>0.03720600000000001</v>
       </c>
       <c r="D30">
-        <v>0.1016123515176836</v>
+        <v>0.1727242850222465</v>
       </c>
       <c r="E30">
-        <v>0.2753223026582196</v>
+        <v>0.4680026312455098</v>
       </c>
       <c r="F30">
-        <v>0.08436132518163103</v>
+        <v>0.1434003775908153</v>
       </c>
       <c r="G30">
-        <v>0.559886864148176</v>
+        <v>0.9517155823966122</v>
       </c>
       <c r="H30">
-        <v>0.07036769828223353</v>
+        <v>0.1196135134452112</v>
       </c>
       <c r="I30">
-        <v>3.000263623110032</v>
+        <v>5.099954694875362</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.829243498458855</v>
+        <v>3.109413084962544</v>
       </c>
       <c r="C31">
-        <v>0.03239423999999999</v>
+        <v>0.05506488</v>
       </c>
       <c r="D31">
-        <v>0.07930720118453359</v>
+        <v>0.1348091980661437</v>
       </c>
       <c r="E31">
-        <v>0.4172853649663639</v>
+        <v>0.7093164879814758</v>
       </c>
       <c r="F31">
-        <v>0.0402457698114203</v>
+        <v>0.06841118930937978</v>
       </c>
       <c r="G31">
-        <v>0.2846091559419894</v>
+        <v>0.4837887543849441</v>
       </c>
       <c r="H31">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I31">
-        <v>2.693911030098891</v>
+        <v>4.579205673696058</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.566013405369779</v>
+        <v>2.661965221134316</v>
       </c>
       <c r="C32">
-        <v>0.03939840000000001</v>
+        <v>0.0669708</v>
       </c>
       <c r="D32">
-        <v>0.0570020508513835</v>
+        <v>0.09689411111004091</v>
       </c>
       <c r="E32">
-        <v>0.3656624332179476</v>
+        <v>0.6215659946229425</v>
       </c>
       <c r="F32">
-        <v>0.04179368403493643</v>
+        <v>0.07104238889820205</v>
       </c>
       <c r="G32">
-        <v>0.2379519172629748</v>
+        <v>0.40447912251856</v>
       </c>
       <c r="H32">
-        <v>0.04330319894291293</v>
+        <v>0.07360831596628377</v>
       </c>
       <c r="I32">
-        <v>2.351125089679934</v>
+        <v>3.996525954250345</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.1372362615489</v>
+        <v>1.933114599195374</v>
       </c>
       <c r="C33">
-        <v>0.04114944000000001</v>
+        <v>0.06994728000000001</v>
       </c>
       <c r="D33">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E33">
-        <v>0.3656624332179476</v>
+        <v>0.6215659946229425</v>
       </c>
       <c r="F33">
-        <v>0.02786245602329097</v>
+        <v>0.04736159259880138</v>
       </c>
       <c r="G33">
-        <v>0.1493031637728469</v>
+        <v>0.2537908219724297</v>
       </c>
       <c r="H33">
-        <v>0.04330319894291293</v>
+        <v>0.07360831596628377</v>
       </c>
       <c r="I33">
-        <v>1.828954054468332</v>
+        <v>3.108921077784574</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.849328347232723</v>
+        <v>1.443718498133255</v>
       </c>
       <c r="C34">
-        <v>0.03151872</v>
+        <v>0.05357664000000002</v>
       </c>
       <c r="D34">
-        <v>0.03717525055525015</v>
+        <v>0.06319181159350491</v>
       </c>
       <c r="E34">
-        <v>0.240907014825942</v>
+        <v>0.409502302339821</v>
       </c>
       <c r="F34">
-        <v>0.01625309934691972</v>
+        <v>0.02762759568263413</v>
       </c>
       <c r="G34">
-        <v>0.1493031637728469</v>
+        <v>0.2537908219724297</v>
       </c>
       <c r="I34">
-        <v>1.324485595733682</v>
+        <v>2.251407669721645</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.5922677094504213</v>
+        <v>1.006757693613505</v>
       </c>
       <c r="C35">
-        <v>0.01575936</v>
+        <v>0.02678832000000001</v>
       </c>
       <c r="D35">
-        <v>0.02478350037016674</v>
+        <v>0.0421278743956699</v>
       </c>
       <c r="E35">
-        <v>0.1978879050355953</v>
+        <v>0.3363768912077103</v>
       </c>
       <c r="F35">
-        <v>0.01702705645867781</v>
+        <v>0.02894319547704528</v>
       </c>
       <c r="G35">
-        <v>0.08864875349012784</v>
+        <v>0.1506883005461302</v>
       </c>
       <c r="H35">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I35">
-        <v>0.9472000845407172</v>
+        <v>1.610084354231631</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.3382917993215078</v>
+        <v>0.5750404187479916</v>
       </c>
       <c r="C36">
-        <v>0.03414528000000001</v>
+        <v>0.05804136000000001</v>
       </c>
       <c r="D36">
-        <v>0.002478350037016675</v>
+        <v>0.00421278743956699</v>
       </c>
       <c r="E36">
-        <v>0.09464204153876295</v>
+        <v>0.160875904490644</v>
       </c>
       <c r="F36">
-        <v>0.05030721226427532</v>
+        <v>0.08551398663672466</v>
       </c>
       <c r="G36">
-        <v>0.1259745444333396</v>
+        <v>0.2141360060392377</v>
       </c>
       <c r="H36">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I36">
-        <v>0.6512521274627664</v>
+        <v>1.107021502849951</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1789142038964816</v>
+        <v>0.3041247199457461</v>
       </c>
       <c r="C37">
-        <v>0.01751040000000001</v>
+        <v>0.02976480000000001</v>
       </c>
       <c r="D37">
-        <v>0.002478350037016675</v>
+        <v>0.00421278743956699</v>
       </c>
       <c r="E37">
-        <v>0.03441528783227745</v>
+        <v>0.05850032890568872</v>
       </c>
       <c r="F37">
-        <v>0.0317322415820814</v>
+        <v>0.05393959157085709</v>
       </c>
       <c r="G37">
-        <v>0.09798020122593083</v>
+        <v>0.1665502269194071</v>
       </c>
       <c r="H37">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I37">
-        <v>0.3792693841773803</v>
+        <v>0.6446955732686225</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1285303188911505</v>
+        <v>0.2184804022598752</v>
       </c>
       <c r="C38">
-        <v>0.004377600000000001</v>
+        <v>0.007441200000000002</v>
       </c>
       <c r="D38">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="F38">
-        <v>0.02012288490571015</v>
+        <v>0.03420559465468989</v>
       </c>
       <c r="G38">
-        <v>0.09331447735802935</v>
+        <v>0.1586192637327687</v>
       </c>
       <c r="H38">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I38">
-        <v>0.2783664805682439</v>
+        <v>0.4731772330053952</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.09357007215275756</v>
+        <v>0.1590537328451891</v>
       </c>
       <c r="C39">
-        <v>0.00612864</v>
+        <v>0.01041768</v>
       </c>
       <c r="D39">
-        <v>0.01239175018508337</v>
+        <v>0.02106393719783495</v>
       </c>
       <c r="F39">
-        <v>0.009287485341096991</v>
+        <v>0.01578719753293378</v>
       </c>
       <c r="G39">
-        <v>0.08398302962222642</v>
+        <v>0.1427573373594917</v>
       </c>
       <c r="H39">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I39">
-        <v>0.2107738771690285</v>
+        <v>0.358280924431235</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.09459831470388678</v>
+        <v>0.1608015760632682</v>
       </c>
       <c r="C40">
-        <v>0.005253119999999998</v>
+        <v>0.00892944</v>
       </c>
       <c r="D40">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E40">
-        <v>0.03871719881131214</v>
+        <v>0.06581287001889981</v>
       </c>
       <c r="F40">
-        <v>0.01547914223516165</v>
+        <v>0.02631199588822298</v>
       </c>
       <c r="G40">
-        <v>0.07465158188642347</v>
+        <v>0.1268954109862149</v>
       </c>
       <c r="H40">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I40">
-        <v>0.2444818574465456</v>
+        <v>0.4155789468273107</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.2416369995153629</v>
+        <v>0.4107431562485651</v>
       </c>
       <c r="C41">
-        <v>0.007004159999999999</v>
+        <v>0.01190592</v>
       </c>
       <c r="D41">
-        <v>0.009913400148066699</v>
+        <v>0.01685114975826796</v>
       </c>
       <c r="E41">
-        <v>0.03011337685324274</v>
+        <v>0.05118778779247762</v>
       </c>
       <c r="F41">
-        <v>0.01470518512340358</v>
+        <v>0.02499639609381182</v>
       </c>
       <c r="G41">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H41">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I41">
-        <v>0.4254291182054767</v>
+        <v>0.7231595290548688</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.5603921903654165</v>
+        <v>0.9525745538530551</v>
       </c>
       <c r="C42">
-        <v>0.01400832</v>
+        <v>0.02381184</v>
       </c>
       <c r="D42">
-        <v>0.03717525055525015</v>
+        <v>0.06319181159350491</v>
       </c>
       <c r="E42">
-        <v>0.1720764391613872</v>
+        <v>0.2925016445284435</v>
       </c>
       <c r="F42">
-        <v>0.03792389847614606</v>
+        <v>0.06446438992614631</v>
       </c>
       <c r="G42">
-        <v>0.2052918501876645</v>
+        <v>0.3489623802120909</v>
       </c>
       <c r="H42">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I42">
-        <v>1.059345347953049</v>
+        <v>1.800712857087954</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.105360742463894</v>
+        <v>1.878931459434927</v>
       </c>
       <c r="C43">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D43">
-        <v>0.04213195062928343</v>
+        <v>0.07161738647263884</v>
       </c>
       <c r="E43">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F43">
-        <v>0.06501239738767889</v>
+        <v>0.1105103827305365</v>
       </c>
       <c r="G43">
-        <v>0.2566148127345806</v>
+        <v>0.4362029752651133</v>
       </c>
       <c r="H43">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I43">
-        <v>1.81761491095505</v>
+        <v>3.089646398802705</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.803537434680624</v>
+        <v>3.06571700451057</v>
       </c>
       <c r="C44">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D44">
-        <v>0.09417730140663358</v>
+        <v>0.1600859227035458</v>
       </c>
       <c r="E44">
-        <v>0.3742662551760172</v>
+        <v>0.6361910768493645</v>
       </c>
       <c r="F44">
-        <v>0.08668319651690522</v>
+        <v>0.1473471769740487</v>
       </c>
       <c r="G44">
-        <v>0.4199151481111316</v>
+        <v>0.7137866867974592</v>
       </c>
       <c r="H44">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I44">
-        <v>2.855791414305681</v>
+        <v>4.854375701784413</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.103784259610352</v>
+        <v>3.576087224189635</v>
       </c>
       <c r="C45">
-        <v>0.01838592</v>
+        <v>0.03125303999999999</v>
       </c>
       <c r="D45">
-        <v>0.106569051591717</v>
+        <v>0.1811498599013807</v>
       </c>
       <c r="E45">
-        <v>0.3226433234276008</v>
+        <v>0.5484405834908318</v>
       </c>
       <c r="F45">
-        <v>0.08668319651690522</v>
+        <v>0.1473471769740487</v>
       </c>
       <c r="G45">
-        <v>0.4899010061296543</v>
+        <v>0.8327511345970356</v>
       </c>
       <c r="H45">
-        <v>0.1244966969608747</v>
+        <v>0.2116239084030658</v>
       </c>
       <c r="I45">
-        <v>3.252463454237104</v>
+        <v>5.528652927555998</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.77063367304449</v>
+        <v>3.009786021532039</v>
       </c>
       <c r="C46">
-        <v>0.02539007999999999</v>
+        <v>0.04315896</v>
       </c>
       <c r="D46">
-        <v>0.1338309019989002</v>
+        <v>0.2274905217366175</v>
       </c>
       <c r="E46">
-        <v>0.2882280355953236</v>
+        <v>0.4899402545851427</v>
       </c>
       <c r="F46">
-        <v>0.1656268219162295</v>
+        <v>0.2815383560039858</v>
       </c>
       <c r="G46">
-        <v>0.9471419451839977</v>
+        <v>1.609985526887602</v>
       </c>
       <c r="H46">
-        <v>0.09743219762155407</v>
+        <v>0.1656187109241385</v>
       </c>
       <c r="I46">
-        <v>3.428283655360496</v>
+        <v>5.827518351669526</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.213326210332461</v>
+        <v>2.062454997333221</v>
       </c>
       <c r="C47">
-        <v>0.03151872</v>
+        <v>0.05357664000000002</v>
       </c>
       <c r="D47">
-        <v>0.07682885114751685</v>
+        <v>0.1305964106265767</v>
       </c>
       <c r="E47">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F47">
-        <v>0.2027767632806175</v>
+        <v>0.3446871461357209</v>
       </c>
       <c r="G47">
-        <v>0.667198513109909</v>
+        <v>1.134127735689296</v>
       </c>
       <c r="H47">
-        <v>0.09201929775369</v>
+        <v>0.1564176714283531</v>
       </c>
       <c r="I47">
-        <v>2.53748110338724</v>
+        <v>4.313300526892623</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.33054586116119</v>
+        <v>2.261709124194228</v>
       </c>
       <c r="C48">
-        <v>0.03589632</v>
+        <v>0.06101783999999999</v>
       </c>
       <c r="D48">
-        <v>0.1858762527762503</v>
+        <v>0.3159590579675244</v>
       </c>
       <c r="E48">
-        <v>0.2710203916791848</v>
+        <v>0.4606900901322986</v>
       </c>
       <c r="F48">
-        <v>0.1958111492747948</v>
+        <v>0.3328467479860207</v>
       </c>
       <c r="G48">
-        <v>0.8724903632975745</v>
+        <v>1.483090115901387</v>
       </c>
       <c r="H48">
-        <v>0.1299095968287388</v>
+        <v>0.2208249478988513</v>
       </c>
       <c r="I48">
-        <v>3.021549935017733</v>
+        <v>5.13613792408031</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.119756138179703</v>
+        <v>1.903401264488031</v>
       </c>
       <c r="C49">
-        <v>0.02976767999999999</v>
+        <v>0.05060016000000002</v>
       </c>
       <c r="D49">
-        <v>0.121439151813817</v>
+        <v>0.2064265845387826</v>
       </c>
       <c r="E49">
-        <v>0.2882280355953236</v>
+        <v>0.4899402545851427</v>
       </c>
       <c r="F49">
-        <v>0.1323466661106321</v>
+        <v>0.2249675648443065</v>
       </c>
       <c r="G49">
-        <v>1.133770899900056</v>
+        <v>1.927224054353139</v>
       </c>
       <c r="H49">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I49">
-        <v>2.890263370013901</v>
+        <v>4.912972356758827</v>
       </c>
     </row>
   </sheetData>
